--- a/what-and-how-to-be.xlsx
+++ b/what-and-how-to-be.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">Glossário de termos de negócio (lista das "coisas" de negócio)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+  <si>
+    <t xml:space="preserve">Glossário de termos de negócio</t>
   </si>
   <si>
     <t xml:space="preserve">Termos</t>
@@ -33,71 +33,88 @@
     <t xml:space="preserve">Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve">Reservas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservas de Passagens aéreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe tarifária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A classe da reserva selecionada, podem ser elas: Econômica, Executiva e Primeira Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeroporto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local onde os voos partem e chegam, local de manutenção das aeronaves e de transito dos passageiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa de
-fidelidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa de fidenlização dos usuários de uma companhia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malha de voo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São as rotas aéreas planejadas para aquele dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passageiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente da plataforma que finalizou uma reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pessoa que se cadastrou na plataforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projetos Estratégicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projetos de cunho estratégico para direcionamento futuro da empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursos Financeiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade de dinheiro que a empresa dispõe para realizar operações e projetos da empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicadores de Desempenho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valores que indicarão o desempenho constante da empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concorrentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outras empresas aéreas do mesmo ramo e que principalmente atuam na mesma malha aérea</t>
+    <t xml:space="preserve">Ação estratégica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processos realizados, seguindo os planos, para atingir os objetivos estratégicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anúncio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peça publicitária veiculada em diferentes canais de comunicação para divulgar uma campanha de vendas de cupons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campanha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processos realizados que visam atingir objetivos de marketing, como captacao de vendas e clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessoa que compra cupons de desconto ou realiza pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento que estabelece e garante direitos para a prestação de serviço entre a empresa e seu parceiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket de valor simbólico que podem ser trocados por produtos de estabelecimentos comerciais parceiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento fiscal que representa uma venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo Estratégico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvo dos planos estratégicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parceiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecimento comercial que firma contrato para oferecer descontos em seus produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativa temporária realizada para implementar uma campanha de vendas de cupons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artefato comercializado pela empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra gerada de um produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade disponível de certo produto para a venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro de Distribuição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local aonde ficam armazenados os produtos até sua venda</t>
   </si>
   <si>
     <t xml:space="preserve">Cadeia de Valor (Identificação de processos)</t>
@@ -112,69 +129,122 @@
     <t xml:space="preserve">Processos desdobrados</t>
   </si>
   <si>
-    <t xml:space="preserve">Planejamento estratégico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisão e aprovação de projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisão e viablização de recursos financeiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analise de mercardo e de atuação dos concorrentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acompanhar indicadores de desempenho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoiar criação de novos produtos e serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precificacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição dos trechos de voo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinar o valor da classe tarifária para cada trecho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reavaliar preço a cada 30 min dependendo da oferta e procura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro do Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente cria reserva de voo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagamento da reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidelização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa de fidelidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursos Financeiros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicadores de Desempenho </t>
+    <t xml:space="preserve">Estratégia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar Planejamento Estratégico</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Processo responsável por avaliar os p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adrões de comportamento dos consumidores e gerar planos estratégicos</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejar Ações de Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduzir as ações estratégicas do plano estratégico em ações de marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer Parcerias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negociar e formar parcerias com estabelecimentos comerciais rentáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerir Relacionamento com Consumidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratar qualquer manifestação dos consumidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vender Cupons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferecer um canal de vendas para os consumidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar Campanhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar as campanhas previamente planejadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerir Finanças</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitir as notas fiscais relativas à venda dos cupons e ao pagamento dos serviços prestados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerir Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformar uma minuta de contrato em um contrato assinado entre as partes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prover Assessoria Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respaldar as negociações de parceria, a gestão de contratos e o tratamento de manifestações do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisionar Soluções de TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver uma solução de TI através de um projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ações estratégicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anúncio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas Fiscal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo Estratégico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parceiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplicações</t>
   </si>
   <si>
@@ -187,28 +257,46 @@
     <t xml:space="preserve">P = produz</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema de reservatórios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema que gerencia ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de poços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bla Bla bla...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de misturas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de derivados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de avaliação de desempenho</t>
+    <t xml:space="preserve">CRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de gerenciamento de relacionamento com os consumidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP – Módulo Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de planejamento de recursos da empresa – Módulo de gerenciamento de contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP – Módulo Financeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de planejamento de recursos da empresa – Módulo de gerenciamento financeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Gerenciamento de Projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerencia todos os projetos derivados dos planos estratégicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Venda de Cupons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibiliza e gerencia a venda de cupons para os consumidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Registro e Acompanhamento de Negociação de Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerencia os contratos com parceiros e acompanha desde o processo de negociação até a finalização de um contrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrocina links de campanhas e cupons em sites de busca</t>
   </si>
 </sst>
 </file>
@@ -218,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -255,22 +343,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -429,79 +512,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,6 +601,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,11 +687,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3903840</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>828720</xdr:rowOff>
     </xdr:to>
@@ -619,8 +702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="0" y="9360"/>
-          <a:ext cx="3903840" cy="819360"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4881240" cy="828720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -650,7 +733,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1054800</xdr:colOff>
+      <xdr:colOff>1054080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>520920</xdr:rowOff>
     </xdr:to>
@@ -662,7 +745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="127800" y="295200"/>
-          <a:ext cx="927000" cy="225720"/>
+          <a:ext cx="926280" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,7 +797,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3366000</xdr:colOff>
+      <xdr:colOff>3365280</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>711360</xdr:rowOff>
     </xdr:to>
@@ -726,7 +809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2281320" y="485640"/>
-          <a:ext cx="1084680" cy="225720"/>
+          <a:ext cx="1083960" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,14 +862,14 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,34 +887,34 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -839,43 +922,43 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
@@ -891,6 +974,42 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -913,159 +1032,171 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="960" topLeftCell="A3" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="102.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-    </row>
+      <c r="D13" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1082,446 +1213,459 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="67.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="17" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>23</v>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="14"/>
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="G8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="A10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
+      <c r="A11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="17" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="A23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+      <c r="A24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="23"/>
+      <c r="A25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="24"/>
+      <c r="A26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="25"/>
+      <c r="A27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="26"/>
-    </row>
+      <c r="A28" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B28:N28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
